--- a/TestCases2.xlsx
+++ b/TestCases2.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\MavenFramework\MavenFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E247FAEE-0A94-4D59-B09A-D95F3E55EB6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF1E6F-6238-4FF0-B92C-162BD56AE69E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="434" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="434" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseSheet" sheetId="1" r:id="rId1"/>
     <sheet name="CapturedObjectProperties" sheetId="14" r:id="rId2"/>
-    <sheet name="TS_01" sheetId="17" r:id="rId3"/>
+    <sheet name="TS_02" sheetId="18" r:id="rId3"/>
+    <sheet name="TS_01" sheetId="17" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -176,10 +178,25 @@
     <t>http://blazedemo.com/</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>BookFlight</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>BookAnotherFlight</t>
+  </si>
+  <si>
+    <t>TS_02.appurl</t>
+  </si>
+  <si>
+    <t>TS_02.destination</t>
+  </si>
+  <si>
+    <t>TS_02.arrival</t>
   </si>
 </sst>
 </file>
@@ -245,11 +262,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -559,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +620,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
@@ -709,6 +725,114 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -719,10 +843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,20 +937,6 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -834,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C346EBA4-D2D3-446A-9E3E-F74C4C6BC6B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF214B4A-B612-48AB-A7FA-04DF15924089}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,6 +969,51 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{80C750FE-0AE7-4247-9765-F595C22E68FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C346EBA4-D2D3-446A-9E3E-F74C4C6BC6B1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
